--- a/data/model_input/ninja_accounts.xlsx
+++ b/data/model_input/ninja_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\engineering\github_projects\renewables_ninja\renewables_ninja\data\model_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22050C7-C9B4-4995-99C0-755E0B303923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726AA729-A319-4A4D-B1A6-761AC6EE5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,26 @@
   </si>
   <si>
     <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5fcf83e73d4db25af5c98df90ac0e58170fc2810</t>
+  </si>
+  <si>
+    <t>yuruotao@outlook.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.U7nrGuY666YFjq</t>
+  </si>
+  <si>
+    <t>boli@berkeley.edu</t>
+  </si>
+  <si>
+    <t>libo123456</t>
+  </si>
+  <si>
+    <t>e9fd74ecc008cc5606f265dea1b28260ee799984</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +76,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,14 +104,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,13 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.4140625" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="63.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -380,8 +416,33 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{33823789-82B7-4EF3-94FD-35703C693207}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/model_input/ninja_accounts.xlsx
+++ b/data/model_input/ninja_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\engineering\github_projects\renewables_ninja\renewables_ninja\data\model_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726AA729-A319-4A4D-B1A6-761AC6EE5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5F437-0989-41EB-9732-8350B0F76E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,15 @@
   <si>
     <t>e9fd74ecc008cc5606f265dea1b28260ee799984</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicolasfelix1998@gmail.com</t>
+  </si>
+  <si>
+    <t>SIMrenew44</t>
+  </si>
+  <si>
+    <t>1dcc9831ca9f7aab400c470abfd039b4e4614e84</t>
   </si>
 </sst>
 </file>
@@ -392,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -438,6 +447,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/model_input/ninja_accounts.xlsx
+++ b/data/model_input/ninja_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\engineering\github_projects\renewables_ninja\renewables_ninja\data\model_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5F437-0989-41EB-9732-8350B0F76E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981718A-A7A2-4A6D-9FA7-430B3223FE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,23 @@
   </si>
   <si>
     <t>1dcc9831ca9f7aab400c470abfd039b4e4614e84</t>
+  </si>
+  <si>
+    <t>yuruotao@gmail.com</t>
+  </si>
+  <si>
+    <t>yuruotao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b9d9a6002725514adf8dc84044e92083980d913d</t>
+  </si>
+  <si>
+    <t>2523269717@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4281e2c33f8bd645a32a76e7b93ca25d284666a</t>
   </si>
 </sst>
 </file>
@@ -401,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -458,10 +475,33 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{33823789-82B7-4EF3-94FD-35703C693207}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{C03718DF-54C3-49A5-9B05-F4EEE45C1981}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/model_input/ninja_accounts.xlsx
+++ b/data/model_input/ninja_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\engineering\github_projects\renewables_ninja\renewables_ninja\data\model_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981718A-A7A2-4A6D-9FA7-430B3223FE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E819CF8E-91F5-489F-A4FB-52B7D655AD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>a4281e2c33f8bd645a32a76e7b93ca25d284666a</t>
+  </si>
+  <si>
+    <t>dyzcr1o@126.com</t>
+  </si>
+  <si>
+    <t>tt123456</t>
+  </si>
+  <si>
+    <t>d21cae6a093c9dfc7922526002b655f1e67f4387</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -497,6 +506,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -504,5 +524,6 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{C03718DF-54C3-49A5-9B05-F4EEE45C1981}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/model_input/ninja_accounts.xlsx
+++ b/data/model_input/ninja_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\engineering\github_projects\renewables_ninja\renewables_ninja\data\model_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E819CF8E-91F5-489F-A4FB-52B7D655AD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC1A283-1B20-4126-B4A6-F9EC1FB5BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,19 @@
   </si>
   <si>
     <t>d21cae6a093c9dfc7922526002b655f1e67f4387</t>
+  </si>
+  <si>
+    <t>842269777@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d80d301de8c4df4de9b7d582b6512ef250da8fe6</t>
+  </si>
+  <si>
+    <t>485862238@qq.com</t>
+  </si>
+  <si>
+    <t>085112407fdbb233cb4553467868df9c62509e5d</t>
   </si>
 </sst>
 </file>
@@ -427,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -517,13 +530,36 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1234560</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>123456</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{33823789-82B7-4EF3-94FD-35703C693207}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{C03718DF-54C3-49A5-9B05-F4EEE45C1981}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{1CE58953-9F78-46EA-9314-A58655BD6A51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/model_input/ninja_accounts.xlsx
+++ b/data/model_input/ninja_accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\engineering\github_projects\renewables_ninja\renewables_ninja\data\model_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC1A283-1B20-4126-B4A6-F9EC1FB5BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3AA9B3-B865-47EB-AE0F-6AF1AA6B58BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,47 @@
   </si>
   <si>
     <t>085112407fdbb233cb4553467868df9c62509e5d</t>
+  </si>
+  <si>
+    <t>159hzp357</t>
+  </si>
+  <si>
+    <t>1211004132@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2466161157@qq.com</t>
+  </si>
+  <si>
+    <t>2312301036@st.gxu.edu.cn</t>
+  </si>
+  <si>
+    <t>819406lzkhr</t>
+  </si>
+  <si>
+    <t>2867334406@qq.com</t>
+  </si>
+  <si>
+    <t>asdzxc123</t>
+  </si>
+  <si>
+    <t>2212301027@st.gxu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0ecb8a47c57c97363453b4545e35821fb4a96ef</t>
+  </si>
+  <si>
+    <t>dcfa26e53c12c0e0fd6e9aeed7aa1f26c8781abe</t>
+  </si>
+  <si>
+    <t>137250da368eb1e9fcf32bf65e9e228598cb6045</t>
+  </si>
+  <si>
+    <t>ec02420a0cb4ec0f71f259e975c84ef3ab9db0cd</t>
+  </si>
+  <si>
+    <t>8f2ade7c7189351526f3d0347378c9dee31ff954</t>
   </si>
 </sst>
 </file>
@@ -440,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -552,14 +593,71 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2466161157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{33823789-82B7-4EF3-94FD-35703C693207}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{C03718DF-54C3-49A5-9B05-F4EEE45C1981}"/>
     <hyperlink ref="A8" r:id="rId3" xr:uid="{1CE58953-9F78-46EA-9314-A58655BD6A51}"/>
+    <hyperlink ref="A10" r:id="rId4" xr:uid="{FE47B734-C27C-46D6-B48D-1F9844C170A9}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{D7C50AF6-9112-4A71-82E8-A1F7E5F9B6FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>